--- a/study/weather.xlsx
+++ b/study/weather.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
-    <t>姓名</t>
+    <t>姓名111111111111111111111111111111111111111111111111111111111111111</t>
   </si>
   <si>
     <t>陈涛</t>
@@ -95,7 +95,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,7 +413,9 @@
     </row>
     <row r="3" spans="1:2" ht="100" customHeight="1"/>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
